--- a/study 3 results.xlsx
+++ b/study 3 results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Desktop\my_proj\Online-Vid-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\online vid proj\Online-Vid-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03810320-8476-4C08-803C-8504AC02640B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F231460-812E-4E14-BAE6-FDB3D9BDE31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary of Results" sheetId="2" r:id="rId1"/>
@@ -18,26 +18,36 @@
     <sheet name="combined_data_2" sheetId="12" r:id="rId3"/>
     <sheet name="test data" sheetId="15" r:id="rId4"/>
     <sheet name="new 1v1" sheetId="7" r:id="rId5"/>
-    <sheet name="new 2v2" sheetId="8" r:id="rId6"/>
-    <sheet name="new 3v3" sheetId="9" r:id="rId7"/>
-    <sheet name="Subjective ratings" sheetId="3" r:id="rId8"/>
-    <sheet name="Quotes" sheetId="13" r:id="rId9"/>
-    <sheet name="combined_data" sheetId="11" r:id="rId10"/>
-    <sheet name="2v2" sheetId="5" r:id="rId11"/>
-    <sheet name="3v3" sheetId="6" r:id="rId12"/>
-    <sheet name="1v1" sheetId="4" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId6"/>
+    <sheet name="new 2v2" sheetId="8" r:id="rId7"/>
+    <sheet name="new 3v3" sheetId="9" r:id="rId8"/>
+    <sheet name="Subjective ratings" sheetId="3" r:id="rId9"/>
+    <sheet name="Quotes" sheetId="13" r:id="rId10"/>
+    <sheet name="combined_data" sheetId="11" r:id="rId11"/>
+    <sheet name="2v2" sheetId="5" r:id="rId12"/>
+    <sheet name="3v3" sheetId="6" r:id="rId13"/>
+    <sheet name="1v1" sheetId="4" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="45">
   <si>
     <t>Part ID</t>
   </si>
@@ -200,23 +210,29 @@
     <t>ap&lt;ctl</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>容易慌张</t>
+  </si>
+  <si>
+    <t>因为正好暂停到这个位置我要做一下选择。这里就很清晰。如果是没有暂停就一下子滑过去了。关键操作需要选则，每一步是需要操作了。没有暂停的话就容易漏掉。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -224,7 +240,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -232,14 +248,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -248,7 +264,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -257,7 +273,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -265,7 +281,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -314,7 +330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -336,6 +352,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3936,11 +3958,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7ACD6B0-0318-43FE-8215-8F9B414F6A93}">
   <dimension ref="A3:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="23.5546875" customWidth="1"/>
     <col min="2" max="2" width="26.109375" customWidth="1"/>
@@ -3948,7 +3970,7 @@
     <col min="11" max="11" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="I3" t="s">
         <v>30</v>
       </c>
@@ -3957,7 +3979,7 @@
         <v>5.729494822210375E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -3972,7 +3994,7 @@
         <v>6.0633578809622807E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="I5" t="s">
         <v>32</v>
       </c>
@@ -3981,7 +4003,7 @@
         <v>0.11150507490555497</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3989,7 +4011,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="I11" t="s">
         <v>30</v>
       </c>
@@ -3998,7 +4020,7 @@
         <v>0.54226527752391396</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="I12" t="s">
         <v>31</v>
       </c>
@@ -4007,7 +4029,7 @@
         <v>3.7599770312948609E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="I13" t="s">
         <v>32</v>
       </c>
@@ -4016,8 +4038,8 @@
         <v>5.5981163498535581E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.2" customHeight="1"/>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -4025,7 +4047,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="I18" t="s">
         <v>30</v>
       </c>
@@ -4034,7 +4056,7 @@
         <v>8.5453871145816783E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="I19" t="s">
         <v>31</v>
       </c>
@@ -4043,7 +4065,7 @@
         <v>4.0922149814308736E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="I20" t="s">
         <v>32</v>
       </c>
@@ -4052,7 +4074,7 @@
         <v>5.5830432174407939E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -4067,7 +4089,7 @@
         <v>0.28579518516567454</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="I25" t="s">
         <v>31</v>
       </c>
@@ -4076,7 +4098,7 @@
         <v>3.235789917294421E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="I26" t="s">
         <v>32</v>
       </c>
@@ -4085,7 +4107,7 @@
         <v>3.2792498551335404E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -4100,7 +4122,7 @@
         <v>0.12437792766787732</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="I32" t="s">
         <v>31</v>
       </c>
@@ -4109,7 +4131,7 @@
         <v>8.3008747378344211E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="I33" t="s">
         <v>32</v>
       </c>
@@ -4118,7 +4140,7 @@
         <v>5.4983521020746703E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -4135,6 +4157,68 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D79666-2BFD-4477-93A1-8A46BFA8A696}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="12"/>
+    <col min="2" max="2" width="96.21875" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="248.4" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF05E96-343A-4581-A81A-7D8C59E035FB}">
   <dimension ref="A1:H73"/>
   <sheetViews>
@@ -4142,7 +4226,7 @@
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
@@ -4152,7 +4236,7 @@
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4178,7 +4262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -4204,7 +4288,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -4230,7 +4314,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -4256,7 +4340,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -4282,7 +4366,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -4308,7 +4392,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -4334,7 +4418,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -4360,7 +4444,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -4386,7 +4470,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="4">
         <v>3</v>
       </c>
@@ -4412,7 +4496,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -4438,7 +4522,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="8">
         <v>4</v>
       </c>
@@ -4464,7 +4548,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -4490,7 +4574,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="6">
         <v>5</v>
       </c>
@@ -4516,7 +4600,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="8">
         <v>5</v>
       </c>
@@ -4542,7 +4626,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="4">
         <v>5</v>
       </c>
@@ -4568,7 +4652,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="6">
         <v>6</v>
       </c>
@@ -4594,7 +4678,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="8">
         <v>6</v>
       </c>
@@ -4620,7 +4704,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="4">
         <v>6</v>
       </c>
@@ -4646,7 +4730,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="6">
         <v>7</v>
       </c>
@@ -4672,7 +4756,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="8">
         <v>7</v>
       </c>
@@ -4698,7 +4782,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="4">
         <v>7</v>
       </c>
@@ -4724,7 +4808,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="6">
         <v>8</v>
       </c>
@@ -4750,7 +4834,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="8">
         <v>8</v>
       </c>
@@ -4776,7 +4860,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="4">
         <v>8</v>
       </c>
@@ -4802,7 +4886,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="6">
         <v>9</v>
       </c>
@@ -4828,7 +4912,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="8">
         <v>9</v>
       </c>
@@ -4854,7 +4938,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="4">
         <v>9</v>
       </c>
@@ -4880,7 +4964,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="6">
         <v>10</v>
       </c>
@@ -4906,7 +4990,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="8">
         <v>10</v>
       </c>
@@ -4932,7 +5016,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="4">
         <v>10</v>
       </c>
@@ -4958,7 +5042,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="6">
         <v>11</v>
       </c>
@@ -4984,7 +5068,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="8">
         <v>11</v>
       </c>
@@ -5010,7 +5094,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="4">
         <v>11</v>
       </c>
@@ -5036,7 +5120,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="6">
         <v>12</v>
       </c>
@@ -5062,7 +5146,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="8">
         <v>12</v>
       </c>
@@ -5088,7 +5172,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="4">
         <v>12</v>
       </c>
@@ -5114,7 +5198,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="6">
         <v>1</v>
       </c>
@@ -5140,7 +5224,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="8">
         <v>1</v>
       </c>
@@ -5166,7 +5250,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="4">
         <v>1</v>
       </c>
@@ -5192,7 +5276,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="6">
         <v>2</v>
       </c>
@@ -5218,7 +5302,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="8">
         <v>2</v>
       </c>
@@ -5244,7 +5328,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="4">
         <v>2</v>
       </c>
@@ -5270,7 +5354,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="6">
         <v>3</v>
       </c>
@@ -5296,7 +5380,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="8">
         <v>3</v>
       </c>
@@ -5322,7 +5406,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="4">
         <v>3</v>
       </c>
@@ -5348,7 +5432,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="6">
         <v>4</v>
       </c>
@@ -5374,7 +5458,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="8">
         <v>4</v>
       </c>
@@ -5400,7 +5484,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="4">
         <v>4</v>
       </c>
@@ -5426,7 +5510,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="6">
         <v>5</v>
       </c>
@@ -5452,7 +5536,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="8">
         <v>5</v>
       </c>
@@ -5478,7 +5562,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="4">
         <v>5</v>
       </c>
@@ -5504,7 +5588,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="6">
         <v>6</v>
       </c>
@@ -5530,7 +5614,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="8">
         <v>6</v>
       </c>
@@ -5556,7 +5640,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="4">
         <v>6</v>
       </c>
@@ -5582,7 +5666,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="6">
         <v>7</v>
       </c>
@@ -5608,7 +5692,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="8">
         <v>7</v>
       </c>
@@ -5634,7 +5718,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="4">
         <v>7</v>
       </c>
@@ -5660,7 +5744,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="6">
         <v>8</v>
       </c>
@@ -5686,7 +5770,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="8">
         <v>8</v>
       </c>
@@ -5712,7 +5796,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="4">
         <v>8</v>
       </c>
@@ -5738,7 +5822,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="6">
         <v>9</v>
       </c>
@@ -5764,7 +5848,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="8">
         <v>9</v>
       </c>
@@ -5790,7 +5874,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="4">
         <v>9</v>
       </c>
@@ -5816,7 +5900,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="6">
         <v>10</v>
       </c>
@@ -5842,7 +5926,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="8">
         <v>10</v>
       </c>
@@ -5868,7 +5952,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="4">
         <v>10</v>
       </c>
@@ -5894,7 +5978,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="6">
         <v>11</v>
       </c>
@@ -5920,7 +6004,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="8">
         <v>11</v>
       </c>
@@ -5946,7 +6030,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="4">
         <v>11</v>
       </c>
@@ -5972,7 +6056,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="6">
         <v>12</v>
       </c>
@@ -5998,7 +6082,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" s="8">
         <v>12</v>
       </c>
@@ -6024,7 +6108,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" s="4">
         <v>12</v>
       </c>
@@ -6051,7 +6135,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H74">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H74">
     <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -6059,7 +6143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A299A7F-841F-4C31-ADB2-E3B0B1F83527}">
   <dimension ref="A1:W25"/>
   <sheetViews>
@@ -6067,9 +6151,9 @@
       <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6095,7 +6179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="7" customFormat="1">
       <c r="A2" s="6">
         <v>3</v>
       </c>
@@ -6132,7 +6216,7 @@
       <c r="V2"/>
       <c r="W2"/>
     </row>
-    <row r="3" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="7" customFormat="1">
       <c r="A3" s="6">
         <v>8</v>
       </c>
@@ -6169,7 +6253,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="7" customFormat="1">
       <c r="A4" s="6">
         <v>5</v>
       </c>
@@ -6206,7 +6290,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="7" customFormat="1">
       <c r="A5" s="6">
         <v>10</v>
       </c>
@@ -6243,7 +6327,7 @@
       <c r="V5"/>
       <c r="W5"/>
     </row>
-    <row r="6" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="7" customFormat="1">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -6280,7 +6364,7 @@
       <c r="V6"/>
       <c r="W6"/>
     </row>
-    <row r="7" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="7" customFormat="1">
       <c r="A7" s="6">
         <v>12</v>
       </c>
@@ -6317,7 +6401,7 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="7" customFormat="1">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -6354,7 +6438,7 @@
       <c r="V8"/>
       <c r="W8"/>
     </row>
-    <row r="9" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="7" customFormat="1">
       <c r="A9" s="6">
         <v>9</v>
       </c>
@@ -6391,7 +6475,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="7" customFormat="1">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -6428,7 +6512,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="7" customFormat="1">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -6465,7 +6549,7 @@
       <c r="V11"/>
       <c r="W11"/>
     </row>
-    <row r="12" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="7" customFormat="1">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -6502,7 +6586,7 @@
       <c r="V12"/>
       <c r="W12"/>
     </row>
-    <row r="13" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="7" customFormat="1">
       <c r="A13" s="6">
         <v>7</v>
       </c>
@@ -6539,7 +6623,7 @@
       <c r="V13"/>
       <c r="W13"/>
     </row>
-    <row r="14" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="7" customFormat="1">
       <c r="A14" s="6">
         <v>7</v>
       </c>
@@ -6576,7 +6660,7 @@
       <c r="V14"/>
       <c r="W14"/>
     </row>
-    <row r="15" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="7" customFormat="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
@@ -6613,7 +6697,7 @@
       <c r="V15"/>
       <c r="W15"/>
     </row>
-    <row r="16" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="7" customFormat="1">
       <c r="A16" s="6">
         <v>9</v>
       </c>
@@ -6650,7 +6734,7 @@
       <c r="V16"/>
       <c r="W16"/>
     </row>
-    <row r="17" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" s="7" customFormat="1">
       <c r="A17" s="6">
         <v>12</v>
       </c>
@@ -6687,7 +6771,7 @@
       <c r="V17"/>
       <c r="W17"/>
     </row>
-    <row r="18" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" s="7" customFormat="1">
       <c r="A18" s="6">
         <v>8</v>
       </c>
@@ -6724,7 +6808,7 @@
       <c r="V18"/>
       <c r="W18"/>
     </row>
-    <row r="19" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" s="7" customFormat="1">
       <c r="A19" s="6">
         <v>11</v>
       </c>
@@ -6767,7 +6851,7 @@
       <c r="V19"/>
       <c r="W19"/>
     </row>
-    <row r="20" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" s="7" customFormat="1">
       <c r="A20" s="6">
         <v>1</v>
       </c>
@@ -6804,7 +6888,7 @@
       <c r="V20"/>
       <c r="W20"/>
     </row>
-    <row r="21" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" s="7" customFormat="1">
       <c r="A21" s="6">
         <v>4</v>
       </c>
@@ -6841,7 +6925,7 @@
       <c r="V21"/>
       <c r="W21"/>
     </row>
-    <row r="22" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" s="7" customFormat="1">
       <c r="A22" s="6">
         <v>3</v>
       </c>
@@ -6878,7 +6962,7 @@
       <c r="V22"/>
       <c r="W22"/>
     </row>
-    <row r="23" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" s="7" customFormat="1">
       <c r="A23" s="6">
         <v>6</v>
       </c>
@@ -6915,7 +6999,7 @@
       <c r="V23"/>
       <c r="W23"/>
     </row>
-    <row r="24" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" s="7" customFormat="1">
       <c r="A24" s="6">
         <v>2</v>
       </c>
@@ -6952,7 +7036,7 @@
       <c r="V24"/>
       <c r="W24"/>
     </row>
-    <row r="25" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" s="7" customFormat="1">
       <c r="A25" s="6">
         <v>5</v>
       </c>
@@ -6990,7 +7074,7 @@
       <c r="W25"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H26">
     <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -6998,7 +7082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF75A8DF-A391-48AD-8245-0F69E41C9E03}">
   <dimension ref="A1:W25"/>
   <sheetViews>
@@ -7006,9 +7090,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7034,7 +7118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="9" customFormat="1">
       <c r="A2" s="8">
         <v>4</v>
       </c>
@@ -7071,7 +7155,7 @@
       <c r="V2"/>
       <c r="W2"/>
     </row>
-    <row r="3" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="9" customFormat="1">
       <c r="A3" s="8">
         <v>11</v>
       </c>
@@ -7108,7 +7192,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="9" customFormat="1">
       <c r="A4" s="8">
         <v>6</v>
       </c>
@@ -7145,7 +7229,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="9" customFormat="1">
       <c r="A5" s="8">
         <v>7</v>
       </c>
@@ -7182,7 +7266,7 @@
       <c r="V5"/>
       <c r="W5"/>
     </row>
-    <row r="6" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="9" customFormat="1">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -7219,7 +7303,7 @@
       <c r="V6"/>
       <c r="W6"/>
     </row>
-    <row r="7" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="9" customFormat="1">
       <c r="A7" s="8">
         <v>9</v>
       </c>
@@ -7256,7 +7340,7 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="9" customFormat="1">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -7293,7 +7377,7 @@
       <c r="V8"/>
       <c r="W8"/>
     </row>
-    <row r="9" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="9" customFormat="1">
       <c r="A9" s="8">
         <v>10</v>
       </c>
@@ -7330,7 +7414,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="9" customFormat="1">
       <c r="A10" s="8">
         <v>1</v>
       </c>
@@ -7367,7 +7451,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="9" customFormat="1">
       <c r="A11" s="8">
         <v>12</v>
       </c>
@@ -7404,7 +7488,7 @@
       <c r="V11"/>
       <c r="W11"/>
     </row>
-    <row r="12" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="9" customFormat="1">
       <c r="A12" s="8">
         <v>3</v>
       </c>
@@ -7441,7 +7525,7 @@
       <c r="V12"/>
       <c r="W12"/>
     </row>
-    <row r="13" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="9" customFormat="1">
       <c r="A13" s="8">
         <v>8</v>
       </c>
@@ -7478,7 +7562,7 @@
       <c r="V13"/>
       <c r="W13"/>
     </row>
-    <row r="14" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="9" customFormat="1">
       <c r="A14" s="8">
         <v>6</v>
       </c>
@@ -7515,7 +7599,7 @@
       <c r="V14"/>
       <c r="W14"/>
     </row>
-    <row r="15" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="9" customFormat="1">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -7552,7 +7636,7 @@
       <c r="V15"/>
       <c r="W15"/>
     </row>
-    <row r="16" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="9" customFormat="1">
       <c r="A16" s="8">
         <v>2</v>
       </c>
@@ -7589,7 +7673,7 @@
       <c r="V16"/>
       <c r="W16"/>
     </row>
-    <row r="17" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" s="9" customFormat="1">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -7626,7 +7710,7 @@
       <c r="V17"/>
       <c r="W17"/>
     </row>
-    <row r="18" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" s="9" customFormat="1">
       <c r="A18" s="8">
         <v>4</v>
       </c>
@@ -7663,7 +7747,7 @@
       <c r="V18"/>
       <c r="W18"/>
     </row>
-    <row r="19" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" s="9" customFormat="1">
       <c r="A19" s="8">
         <v>7</v>
       </c>
@@ -7700,7 +7784,7 @@
       <c r="V19"/>
       <c r="W19"/>
     </row>
-    <row r="20" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" s="9" customFormat="1">
       <c r="A20" s="8">
         <v>3</v>
       </c>
@@ -7737,7 +7821,7 @@
       <c r="V20"/>
       <c r="W20"/>
     </row>
-    <row r="21" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" s="9" customFormat="1">
       <c r="A21" s="8">
         <v>12</v>
       </c>
@@ -7774,7 +7858,7 @@
       <c r="V21"/>
       <c r="W21"/>
     </row>
-    <row r="22" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" s="9" customFormat="1">
       <c r="A22" s="8">
         <v>5</v>
       </c>
@@ -7811,7 +7895,7 @@
       <c r="V22"/>
       <c r="W22"/>
     </row>
-    <row r="23" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" s="9" customFormat="1">
       <c r="A23" s="8">
         <v>8</v>
       </c>
@@ -7848,7 +7932,7 @@
       <c r="V23"/>
       <c r="W23"/>
     </row>
-    <row r="24" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" s="9" customFormat="1">
       <c r="A24" s="8">
         <v>1</v>
       </c>
@@ -7885,7 +7969,7 @@
       <c r="V24"/>
       <c r="W24"/>
     </row>
-    <row r="25" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" s="9" customFormat="1">
       <c r="A25" s="8">
         <v>10</v>
       </c>
@@ -7923,7 +8007,7 @@
       <c r="W25"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H26">
     <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -7931,7 +8015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B65EBBC-92BF-467A-BC8D-9C137E4EF3A0}">
   <dimension ref="A1:W25"/>
   <sheetViews>
@@ -7939,14 +8023,14 @@
       <selection sqref="A1:H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="13.44140625" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7972,7 +8056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="5" customFormat="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -8009,7 +8093,7 @@
       <c r="V2"/>
       <c r="W2"/>
     </row>
-    <row r="3" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="5" customFormat="1">
       <c r="A3" s="4">
         <v>12</v>
       </c>
@@ -8046,7 +8130,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="5" customFormat="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -8083,7 +8167,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="5" customFormat="1">
       <c r="A5" s="4">
         <v>8</v>
       </c>
@@ -8126,7 +8210,7 @@
       <c r="V5"/>
       <c r="W5"/>
     </row>
-    <row r="6" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="5" customFormat="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -8163,7 +8247,7 @@
       <c r="V6"/>
       <c r="W6"/>
     </row>
-    <row r="7" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="5" customFormat="1">
       <c r="A7" s="4">
         <v>10</v>
       </c>
@@ -8200,7 +8284,7 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="5" customFormat="1">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -8237,7 +8321,7 @@
       <c r="V8"/>
       <c r="W8"/>
     </row>
-    <row r="9" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="5" customFormat="1">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -8274,7 +8358,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="5" customFormat="1">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -8311,7 +8395,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="5" customFormat="1">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -8348,7 +8432,7 @@
       <c r="V11"/>
       <c r="W11"/>
     </row>
-    <row r="12" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="5" customFormat="1">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -8385,7 +8469,7 @@
       <c r="V12"/>
       <c r="W12"/>
     </row>
-    <row r="13" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="5" customFormat="1">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -8422,7 +8506,7 @@
       <c r="V13"/>
       <c r="W13"/>
     </row>
-    <row r="14" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="5" customFormat="1">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -8459,7 +8543,7 @@
       <c r="V14"/>
       <c r="W14"/>
     </row>
-    <row r="15" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="5" customFormat="1">
       <c r="A15" s="4">
         <v>5</v>
       </c>
@@ -8496,7 +8580,7 @@
       <c r="V15"/>
       <c r="W15"/>
     </row>
-    <row r="16" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="5" customFormat="1">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -8533,7 +8617,7 @@
       <c r="V16"/>
       <c r="W16"/>
     </row>
-    <row r="17" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" s="5" customFormat="1">
       <c r="A17" s="4">
         <v>4</v>
       </c>
@@ -8570,7 +8654,7 @@
       <c r="V17"/>
       <c r="W17"/>
     </row>
-    <row r="18" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" s="5" customFormat="1">
       <c r="A18" s="4">
         <v>3</v>
       </c>
@@ -8607,7 +8691,7 @@
       <c r="V18"/>
       <c r="W18"/>
     </row>
-    <row r="19" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" s="5" customFormat="1">
       <c r="A19" s="4">
         <v>6</v>
       </c>
@@ -8644,7 +8728,7 @@
       <c r="V19"/>
       <c r="W19"/>
     </row>
-    <row r="20" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" s="5" customFormat="1">
       <c r="A20" s="4">
         <v>8</v>
       </c>
@@ -8681,7 +8765,7 @@
       <c r="V20"/>
       <c r="W20"/>
     </row>
-    <row r="21" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" s="5" customFormat="1">
       <c r="A21" s="4">
         <v>11</v>
       </c>
@@ -8718,7 +8802,7 @@
       <c r="V21"/>
       <c r="W21"/>
     </row>
-    <row r="22" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" s="5" customFormat="1">
       <c r="A22" s="4">
         <v>7</v>
       </c>
@@ -8755,7 +8839,7 @@
       <c r="V22"/>
       <c r="W22"/>
     </row>
-    <row r="23" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" s="5" customFormat="1">
       <c r="A23" s="4">
         <v>10</v>
       </c>
@@ -8792,7 +8876,7 @@
       <c r="V23"/>
       <c r="W23"/>
     </row>
-    <row r="24" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" s="5" customFormat="1">
       <c r="A24" s="4">
         <v>9</v>
       </c>
@@ -8829,7 +8913,7 @@
       <c r="V24"/>
       <c r="W24"/>
     </row>
-    <row r="25" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" s="5" customFormat="1">
       <c r="A25" s="4">
         <v>12</v>
       </c>
@@ -8867,7 +8951,7 @@
       <c r="W25"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H26">
     <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -8883,7 +8967,7 @@
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="9.5546875" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" customWidth="1"/>
@@ -8894,7 +8978,7 @@
     <col min="11" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8920,7 +9004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="5" customFormat="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -8957,7 +9041,7 @@
       <c r="V2"/>
       <c r="W2"/>
     </row>
-    <row r="3" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="7" customFormat="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -8994,7 +9078,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="9" customFormat="1">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -9031,7 +9115,7 @@
       <c r="V4"/>
       <c r="W4"/>
     </row>
-    <row r="5" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="5" customFormat="1">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -9068,7 +9152,7 @@
       <c r="V5"/>
       <c r="W5"/>
     </row>
-    <row r="6" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="7" customFormat="1">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -9105,7 +9189,7 @@
       <c r="V6"/>
       <c r="W6"/>
     </row>
-    <row r="7" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="9" customFormat="1">
       <c r="A7" s="8">
         <v>2</v>
       </c>
@@ -9142,7 +9226,7 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="5" customFormat="1">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -9179,7 +9263,7 @@
       <c r="V8"/>
       <c r="W8"/>
     </row>
-    <row r="9" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="7" customFormat="1">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -9216,7 +9300,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="9" customFormat="1">
       <c r="A10" s="8">
         <v>3</v>
       </c>
@@ -9253,7 +9337,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="5" customFormat="1">
       <c r="A11" s="4">
         <v>4</v>
       </c>
@@ -9298,7 +9382,7 @@
       <c r="V11"/>
       <c r="W11"/>
     </row>
-    <row r="12" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="7" customFormat="1">
       <c r="A12" s="6">
         <v>4</v>
       </c>
@@ -9335,7 +9419,7 @@
       <c r="V12"/>
       <c r="W12"/>
     </row>
-    <row r="13" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="9" customFormat="1">
       <c r="A13" s="8">
         <v>4</v>
       </c>
@@ -9372,7 +9456,7 @@
       <c r="V13"/>
       <c r="W13"/>
     </row>
-    <row r="14" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="5" customFormat="1">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -9409,7 +9493,7 @@
       <c r="V14"/>
       <c r="W14"/>
     </row>
-    <row r="15" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="7" customFormat="1">
       <c r="A15" s="6">
         <v>5</v>
       </c>
@@ -9446,7 +9530,7 @@
       <c r="V15"/>
       <c r="W15"/>
     </row>
-    <row r="16" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="9" customFormat="1">
       <c r="A16" s="8">
         <v>5</v>
       </c>
@@ -9483,7 +9567,7 @@
       <c r="V16"/>
       <c r="W16"/>
     </row>
-    <row r="17" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" s="5" customFormat="1">
       <c r="A17" s="4">
         <v>6</v>
       </c>
@@ -9520,7 +9604,7 @@
       <c r="V17"/>
       <c r="W17"/>
     </row>
-    <row r="18" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" s="7" customFormat="1">
       <c r="A18" s="6">
         <v>6</v>
       </c>
@@ -9557,7 +9641,7 @@
       <c r="V18"/>
       <c r="W18"/>
     </row>
-    <row r="19" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" s="9" customFormat="1">
       <c r="A19" s="8">
         <v>6</v>
       </c>
@@ -9594,7 +9678,7 @@
       <c r="V19"/>
       <c r="W19"/>
     </row>
-    <row r="20" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" s="5" customFormat="1">
       <c r="A20" s="4">
         <v>7</v>
       </c>
@@ -9631,7 +9715,7 @@
       <c r="V20"/>
       <c r="W20"/>
     </row>
-    <row r="21" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" s="7" customFormat="1">
       <c r="A21" s="6">
         <v>7</v>
       </c>
@@ -9668,7 +9752,7 @@
       <c r="V21"/>
       <c r="W21"/>
     </row>
-    <row r="22" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" s="9" customFormat="1">
       <c r="A22" s="8">
         <v>7</v>
       </c>
@@ -9705,7 +9789,7 @@
       <c r="V22"/>
       <c r="W22"/>
     </row>
-    <row r="23" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" s="5" customFormat="1">
       <c r="A23" s="4">
         <v>8</v>
       </c>
@@ -9742,7 +9826,7 @@
       <c r="V23"/>
       <c r="W23"/>
     </row>
-    <row r="24" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" s="7" customFormat="1">
       <c r="A24" s="6">
         <v>8</v>
       </c>
@@ -9779,7 +9863,7 @@
       <c r="V24"/>
       <c r="W24"/>
     </row>
-    <row r="25" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" s="9" customFormat="1">
       <c r="A25" s="8">
         <v>8</v>
       </c>
@@ -9816,7 +9900,7 @@
       <c r="V25"/>
       <c r="W25"/>
     </row>
-    <row r="26" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" s="5" customFormat="1">
       <c r="A26" s="4">
         <v>9</v>
       </c>
@@ -9853,7 +9937,7 @@
       <c r="V26"/>
       <c r="W26"/>
     </row>
-    <row r="27" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" s="7" customFormat="1">
       <c r="A27" s="6">
         <v>9</v>
       </c>
@@ -9890,7 +9974,7 @@
       <c r="V27"/>
       <c r="W27"/>
     </row>
-    <row r="28" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" s="9" customFormat="1">
       <c r="A28" s="8">
         <v>9</v>
       </c>
@@ -9927,7 +10011,7 @@
       <c r="V28"/>
       <c r="W28"/>
     </row>
-    <row r="29" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" s="5" customFormat="1">
       <c r="A29" s="4">
         <v>10</v>
       </c>
@@ -9964,7 +10048,7 @@
       <c r="V29"/>
       <c r="W29"/>
     </row>
-    <row r="30" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" s="7" customFormat="1">
       <c r="A30" s="6">
         <v>10</v>
       </c>
@@ -10001,7 +10085,7 @@
       <c r="V30"/>
       <c r="W30"/>
     </row>
-    <row r="31" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" s="9" customFormat="1">
       <c r="A31" s="8">
         <v>10</v>
       </c>
@@ -10038,7 +10122,7 @@
       <c r="V31"/>
       <c r="W31"/>
     </row>
-    <row r="32" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" s="5" customFormat="1">
       <c r="A32" s="4">
         <v>11</v>
       </c>
@@ -10075,7 +10159,7 @@
       <c r="V32"/>
       <c r="W32"/>
     </row>
-    <row r="33" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" s="7" customFormat="1">
       <c r="A33" s="6">
         <v>11</v>
       </c>
@@ -10112,7 +10196,7 @@
       <c r="V33"/>
       <c r="W33"/>
     </row>
-    <row r="34" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" s="9" customFormat="1">
       <c r="A34" s="8">
         <v>11</v>
       </c>
@@ -10149,7 +10233,7 @@
       <c r="V34"/>
       <c r="W34"/>
     </row>
-    <row r="35" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" s="5" customFormat="1">
       <c r="A35" s="4">
         <v>12</v>
       </c>
@@ -10186,7 +10270,7 @@
       <c r="V35"/>
       <c r="W35"/>
     </row>
-    <row r="36" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" s="7" customFormat="1">
       <c r="A36" s="6">
         <v>12</v>
       </c>
@@ -10223,7 +10307,7 @@
       <c r="V36"/>
       <c r="W36"/>
     </row>
-    <row r="37" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" s="9" customFormat="1">
       <c r="A37" s="8">
         <v>12</v>
       </c>
@@ -10260,7 +10344,7 @@
       <c r="V37"/>
       <c r="W37"/>
     </row>
-    <row r="38" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" s="5" customFormat="1">
       <c r="A38" s="4">
         <v>1</v>
       </c>
@@ -10297,7 +10381,7 @@
       <c r="V38"/>
       <c r="W38"/>
     </row>
-    <row r="39" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" s="7" customFormat="1">
       <c r="A39" s="6">
         <v>1</v>
       </c>
@@ -10334,7 +10418,7 @@
       <c r="V39"/>
       <c r="W39"/>
     </row>
-    <row r="40" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" s="9" customFormat="1">
       <c r="A40" s="8">
         <v>1</v>
       </c>
@@ -10371,7 +10455,7 @@
       <c r="V40"/>
       <c r="W40"/>
     </row>
-    <row r="41" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" s="5" customFormat="1">
       <c r="A41" s="4">
         <v>2</v>
       </c>
@@ -10408,7 +10492,7 @@
       <c r="V41"/>
       <c r="W41"/>
     </row>
-    <row r="42" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" s="7" customFormat="1">
       <c r="A42" s="6">
         <v>2</v>
       </c>
@@ -10445,7 +10529,7 @@
       <c r="V42"/>
       <c r="W42"/>
     </row>
-    <row r="43" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" s="9" customFormat="1">
       <c r="A43" s="8">
         <v>2</v>
       </c>
@@ -10482,7 +10566,7 @@
       <c r="V43"/>
       <c r="W43"/>
     </row>
-    <row r="44" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" s="5" customFormat="1">
       <c r="A44" s="4">
         <v>3</v>
       </c>
@@ -10519,7 +10603,7 @@
       <c r="V44"/>
       <c r="W44"/>
     </row>
-    <row r="45" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" s="7" customFormat="1">
       <c r="A45" s="6">
         <v>3</v>
       </c>
@@ -10556,7 +10640,7 @@
       <c r="V45"/>
       <c r="W45"/>
     </row>
-    <row r="46" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" s="9" customFormat="1">
       <c r="A46" s="8">
         <v>3</v>
       </c>
@@ -10593,7 +10677,7 @@
       <c r="V46"/>
       <c r="W46"/>
     </row>
-    <row r="47" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" s="5" customFormat="1">
       <c r="A47" s="4">
         <v>4</v>
       </c>
@@ -10630,7 +10714,7 @@
       <c r="V47"/>
       <c r="W47"/>
     </row>
-    <row r="48" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" s="7" customFormat="1">
       <c r="A48" s="6">
         <v>4</v>
       </c>
@@ -10667,7 +10751,7 @@
       <c r="V48"/>
       <c r="W48"/>
     </row>
-    <row r="49" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" s="9" customFormat="1">
       <c r="A49" s="8">
         <v>4</v>
       </c>
@@ -10704,7 +10788,7 @@
       <c r="V49"/>
       <c r="W49"/>
     </row>
-    <row r="50" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" s="5" customFormat="1">
       <c r="A50" s="4">
         <v>5</v>
       </c>
@@ -10741,7 +10825,7 @@
       <c r="V50"/>
       <c r="W50"/>
     </row>
-    <row r="51" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" s="7" customFormat="1">
       <c r="A51" s="6">
         <v>5</v>
       </c>
@@ -10778,7 +10862,7 @@
       <c r="V51"/>
       <c r="W51"/>
     </row>
-    <row r="52" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" s="9" customFormat="1">
       <c r="A52" s="8">
         <v>5</v>
       </c>
@@ -10815,7 +10899,7 @@
       <c r="V52"/>
       <c r="W52"/>
     </row>
-    <row r="53" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" s="5" customFormat="1">
       <c r="A53" s="4">
         <v>6</v>
       </c>
@@ -10852,7 +10936,7 @@
       <c r="V53"/>
       <c r="W53"/>
     </row>
-    <row r="54" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" s="7" customFormat="1">
       <c r="A54" s="6">
         <v>6</v>
       </c>
@@ -10897,7 +10981,7 @@
       <c r="V54"/>
       <c r="W54"/>
     </row>
-    <row r="55" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" s="9" customFormat="1">
       <c r="A55" s="8">
         <v>6</v>
       </c>
@@ -10934,7 +11018,7 @@
       <c r="V55"/>
       <c r="W55"/>
     </row>
-    <row r="56" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" s="5" customFormat="1">
       <c r="A56" s="4">
         <v>7</v>
       </c>
@@ -10971,7 +11055,7 @@
       <c r="V56"/>
       <c r="W56"/>
     </row>
-    <row r="57" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" s="7" customFormat="1">
       <c r="A57" s="6">
         <v>7</v>
       </c>
@@ -11008,7 +11092,7 @@
       <c r="V57"/>
       <c r="W57"/>
     </row>
-    <row r="58" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" s="9" customFormat="1">
       <c r="A58" s="8">
         <v>7</v>
       </c>
@@ -11045,7 +11129,7 @@
       <c r="V58"/>
       <c r="W58"/>
     </row>
-    <row r="59" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" s="5" customFormat="1">
       <c r="A59" s="4">
         <v>8</v>
       </c>
@@ -11082,7 +11166,7 @@
       <c r="V59"/>
       <c r="W59"/>
     </row>
-    <row r="60" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" s="7" customFormat="1">
       <c r="A60" s="6">
         <v>8</v>
       </c>
@@ -11119,7 +11203,7 @@
       <c r="V60"/>
       <c r="W60"/>
     </row>
-    <row r="61" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" s="9" customFormat="1">
       <c r="A61" s="8">
         <v>8</v>
       </c>
@@ -11156,7 +11240,7 @@
       <c r="V61"/>
       <c r="W61"/>
     </row>
-    <row r="62" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" s="5" customFormat="1">
       <c r="A62" s="4">
         <v>9</v>
       </c>
@@ -11193,7 +11277,7 @@
       <c r="V62"/>
       <c r="W62"/>
     </row>
-    <row r="63" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" s="7" customFormat="1">
       <c r="A63" s="6">
         <v>9</v>
       </c>
@@ -11230,7 +11314,7 @@
       <c r="V63"/>
       <c r="W63"/>
     </row>
-    <row r="64" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" s="9" customFormat="1">
       <c r="A64" s="8">
         <v>9</v>
       </c>
@@ -11267,7 +11351,7 @@
       <c r="V64"/>
       <c r="W64"/>
     </row>
-    <row r="65" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" s="5" customFormat="1">
       <c r="A65" s="4">
         <v>10</v>
       </c>
@@ -11304,7 +11388,7 @@
       <c r="V65"/>
       <c r="W65"/>
     </row>
-    <row r="66" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" s="7" customFormat="1">
       <c r="A66" s="6">
         <v>10</v>
       </c>
@@ -11341,7 +11425,7 @@
       <c r="V66"/>
       <c r="W66"/>
     </row>
-    <row r="67" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" s="9" customFormat="1">
       <c r="A67" s="8">
         <v>10</v>
       </c>
@@ -11378,7 +11462,7 @@
       <c r="V67"/>
       <c r="W67"/>
     </row>
-    <row r="68" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" s="5" customFormat="1">
       <c r="A68" s="4">
         <v>11</v>
       </c>
@@ -11415,7 +11499,7 @@
       <c r="V68"/>
       <c r="W68"/>
     </row>
-    <row r="69" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" s="7" customFormat="1">
       <c r="A69" s="6">
         <v>11</v>
       </c>
@@ -11452,7 +11536,7 @@
       <c r="V69"/>
       <c r="W69"/>
     </row>
-    <row r="70" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" s="9" customFormat="1">
       <c r="A70" s="8">
         <v>11</v>
       </c>
@@ -11489,7 +11573,7 @@
       <c r="V70"/>
       <c r="W70"/>
     </row>
-    <row r="71" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" s="5" customFormat="1">
       <c r="A71" s="4">
         <v>12</v>
       </c>
@@ -11526,7 +11610,7 @@
       <c r="V71"/>
       <c r="W71"/>
     </row>
-    <row r="72" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" s="7" customFormat="1">
       <c r="A72" s="6">
         <v>12</v>
       </c>
@@ -11563,7 +11647,7 @@
       <c r="V72"/>
       <c r="W72"/>
     </row>
-    <row r="73" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" s="9" customFormat="1">
       <c r="A73" s="8">
         <v>12</v>
       </c>
@@ -11601,7 +11685,7 @@
       <c r="W73"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H73">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H73">
     <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -11615,10 +11699,10 @@
   <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" customWidth="1"/>
@@ -11631,7 +11715,7 @@
     <col min="13" max="13" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11657,7 +11741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -11695,7 +11779,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="6">
         <v>12</v>
       </c>
@@ -11721,7 +11805,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -11766,7 +11850,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="6">
         <v>8</v>
       </c>
@@ -11803,7 +11887,7 @@
         <v>1.3732131246511903</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -11840,7 +11924,7 @@
         <v>3.1212278821104187</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="6">
         <v>10</v>
       </c>
@@ -11877,7 +11961,7 @@
         <v>1.8516401995451028</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -11914,7 +11998,7 @@
         <v>36.494520136590367</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -11940,7 +12024,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -11969,7 +12053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -11995,7 +12079,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="6">
         <v>4</v>
       </c>
@@ -12032,7 +12116,7 @@
         <v>184.43983834371019</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -12069,7 +12153,7 @@
         <v>2.7734569569516472</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="8">
         <v>3</v>
       </c>
@@ -12106,7 +12190,7 @@
         <v>2.6383917660406508</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="8">
         <v>8</v>
       </c>
@@ -12143,7 +12227,7 @@
         <v>3.4735965534116104</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="8">
         <v>5</v>
       </c>
@@ -12180,7 +12264,7 @@
         <v>45.734013600382809</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="8">
         <v>10</v>
       </c>
@@ -12206,7 +12290,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="8">
         <v>1</v>
       </c>
@@ -12232,7 +12316,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="8">
         <v>12</v>
       </c>
@@ -12258,7 +12342,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="8">
         <v>2</v>
       </c>
@@ -12284,7 +12368,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="8">
         <v>9</v>
       </c>
@@ -12310,7 +12394,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="8">
         <v>4</v>
       </c>
@@ -12336,7 +12420,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="8">
         <v>11</v>
       </c>
@@ -12362,7 +12446,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="8">
         <v>6</v>
       </c>
@@ -12388,7 +12472,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="8">
         <v>7</v>
       </c>
@@ -12414,7 +12498,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="4">
         <v>4</v>
       </c>
@@ -12440,7 +12524,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -12466,7 +12550,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="4">
         <v>6</v>
       </c>
@@ -12492,7 +12576,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="4">
         <v>7</v>
       </c>
@@ -12518,7 +12602,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="4">
         <v>2</v>
       </c>
@@ -12544,7 +12628,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="4">
         <v>9</v>
       </c>
@@ -12570,7 +12654,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="4">
         <v>5</v>
       </c>
@@ -12596,7 +12680,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33" s="4">
         <v>10</v>
       </c>
@@ -12622,7 +12706,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34" s="4">
         <v>1</v>
       </c>
@@ -12648,7 +12732,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35" s="4">
         <v>12</v>
       </c>
@@ -12674,7 +12758,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" s="4">
         <v>3</v>
       </c>
@@ -12700,7 +12784,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" s="4">
         <v>8</v>
       </c>
@@ -12726,7 +12810,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" s="6">
         <v>2</v>
       </c>
@@ -12760,7 +12844,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" s="6">
         <v>5</v>
       </c>
@@ -12786,7 +12870,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" s="6">
         <v>1</v>
       </c>
@@ -12812,7 +12896,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" s="6">
         <v>4</v>
       </c>
@@ -12838,7 +12922,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="A42" s="6">
         <v>3</v>
       </c>
@@ -12864,7 +12948,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="A43" s="6">
         <v>6</v>
       </c>
@@ -12890,7 +12974,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="A44" s="6">
         <v>8</v>
       </c>
@@ -12916,7 +13000,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="A45" s="6">
         <v>11</v>
       </c>
@@ -12942,7 +13026,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="A46" s="6">
         <v>7</v>
       </c>
@@ -12968,7 +13052,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47" s="6">
         <v>10</v>
       </c>
@@ -12994,7 +13078,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="A48" s="6">
         <v>9</v>
       </c>
@@ -13020,7 +13104,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="6">
         <v>12</v>
       </c>
@@ -13046,7 +13130,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="8">
         <v>7</v>
       </c>
@@ -13072,7 +13156,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="8">
         <v>10</v>
       </c>
@@ -13098,7 +13182,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="8">
         <v>9</v>
       </c>
@@ -13124,7 +13208,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="8">
         <v>12</v>
       </c>
@@ -13150,7 +13234,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="8">
         <v>8</v>
       </c>
@@ -13176,7 +13260,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="8">
         <v>11</v>
       </c>
@@ -13202,7 +13286,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="8">
         <v>1</v>
       </c>
@@ -13228,7 +13312,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="8">
         <v>4</v>
       </c>
@@ -13254,7 +13338,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="8">
         <v>3</v>
       </c>
@@ -13280,7 +13364,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="8">
         <v>6</v>
       </c>
@@ -13306,7 +13390,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="8">
         <v>2</v>
       </c>
@@ -13332,7 +13416,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="8">
         <v>5</v>
       </c>
@@ -13358,7 +13442,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="4">
         <v>6</v>
       </c>
@@ -13384,7 +13468,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="4">
         <v>9</v>
       </c>
@@ -13410,7 +13494,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="4">
         <v>2</v>
       </c>
@@ -13436,7 +13520,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="4">
         <v>11</v>
       </c>
@@ -13462,7 +13546,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="4">
         <v>4</v>
       </c>
@@ -13488,7 +13572,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="4">
         <v>7</v>
       </c>
@@ -13514,7 +13598,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="4">
         <v>3</v>
       </c>
@@ -13540,7 +13624,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="4">
         <v>12</v>
       </c>
@@ -13566,7 +13650,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="4">
         <v>5</v>
       </c>
@@ -13592,7 +13676,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="4">
         <v>8</v>
       </c>
@@ -13618,7 +13702,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" s="4">
         <v>1</v>
       </c>
@@ -13644,7 +13728,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" s="4">
         <v>10</v>
       </c>
@@ -13671,7 +13755,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H73">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H73">
     <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -13687,13 +13771,13 @@
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="12.5546875" customWidth="1"/>
     <col min="7" max="7" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13719,7 +13803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -13745,7 +13829,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="6">
         <v>12</v>
       </c>
@@ -13771,7 +13855,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -13797,7 +13881,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>8</v>
       </c>
@@ -13823,7 +13907,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -13849,7 +13933,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="6">
         <v>10</v>
       </c>
@@ -13875,7 +13959,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -13901,7 +13985,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -13927,7 +14011,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -13953,7 +14037,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -13979,7 +14063,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="6">
         <v>4</v>
       </c>
@@ -14005,7 +14089,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -14031,7 +14115,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="8">
         <v>3</v>
       </c>
@@ -14057,7 +14141,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="8">
         <v>8</v>
       </c>
@@ -14083,7 +14167,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="8">
         <v>5</v>
       </c>
@@ -14109,7 +14193,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="8">
         <v>10</v>
       </c>
@@ -14135,7 +14219,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="8">
         <v>1</v>
       </c>
@@ -14161,7 +14245,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="8">
         <v>12</v>
       </c>
@@ -14187,7 +14271,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="8">
         <v>2</v>
       </c>
@@ -14213,7 +14297,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="8">
         <v>9</v>
       </c>
@@ -14239,7 +14323,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="8">
         <v>4</v>
       </c>
@@ -14265,7 +14349,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="8">
         <v>11</v>
       </c>
@@ -14291,7 +14375,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="8">
         <v>6</v>
       </c>
@@ -14317,7 +14401,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="8">
         <v>7</v>
       </c>
@@ -14343,7 +14427,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="4">
         <v>4</v>
       </c>
@@ -14369,7 +14453,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -14395,7 +14479,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="4">
         <v>6</v>
       </c>
@@ -14421,7 +14505,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="4">
         <v>7</v>
       </c>
@@ -14447,7 +14531,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="4">
         <v>2</v>
       </c>
@@ -14473,7 +14557,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="4">
         <v>9</v>
       </c>
@@ -14499,7 +14583,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="4">
         <v>5</v>
       </c>
@@ -14525,7 +14609,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="4">
         <v>10</v>
       </c>
@@ -14551,7 +14635,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="4">
         <v>1</v>
       </c>
@@ -14577,7 +14661,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="4">
         <v>12</v>
       </c>
@@ -14603,7 +14687,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="4">
         <v>3</v>
       </c>
@@ -14629,7 +14713,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="4">
         <v>8</v>
       </c>
@@ -14655,7 +14739,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="6">
         <v>2</v>
       </c>
@@ -14681,7 +14765,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="6">
         <v>5</v>
       </c>
@@ -14707,7 +14791,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="6">
         <v>1</v>
       </c>
@@ -14733,7 +14817,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="6">
         <v>4</v>
       </c>
@@ -14759,7 +14843,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="6">
         <v>3</v>
       </c>
@@ -14785,7 +14869,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="6">
         <v>6</v>
       </c>
@@ -14811,7 +14895,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="6">
         <v>8</v>
       </c>
@@ -14837,7 +14921,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="6">
         <v>11</v>
       </c>
@@ -14863,7 +14947,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="6">
         <v>7</v>
       </c>
@@ -14889,7 +14973,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="6">
         <v>10</v>
       </c>
@@ -14915,7 +14999,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="6">
         <v>9</v>
       </c>
@@ -14941,7 +15025,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="6">
         <v>12</v>
       </c>
@@ -14967,7 +15051,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="8">
         <v>7</v>
       </c>
@@ -14993,7 +15077,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="8">
         <v>10</v>
       </c>
@@ -15019,7 +15103,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="8">
         <v>9</v>
       </c>
@@ -15045,7 +15129,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="8">
         <v>12</v>
       </c>
@@ -15071,7 +15155,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="8">
         <v>8</v>
       </c>
@@ -15097,7 +15181,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="8">
         <v>11</v>
       </c>
@@ -15123,7 +15207,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="8">
         <v>1</v>
       </c>
@@ -15149,7 +15233,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="8">
         <v>4</v>
       </c>
@@ -15175,7 +15259,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="8">
         <v>3</v>
       </c>
@@ -15201,7 +15285,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="8">
         <v>6</v>
       </c>
@@ -15227,7 +15311,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" s="8">
         <v>2</v>
       </c>
@@ -15253,7 +15337,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="8">
         <v>5</v>
       </c>
@@ -15279,7 +15363,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="4">
         <v>6</v>
       </c>
@@ -15305,7 +15389,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="4">
         <v>9</v>
       </c>
@@ -15331,7 +15415,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="4">
         <v>2</v>
       </c>
@@ -15357,7 +15441,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="4">
         <v>11</v>
       </c>
@@ -15383,7 +15467,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="4">
         <v>4</v>
       </c>
@@ -15409,7 +15493,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="4">
         <v>7</v>
       </c>
@@ -15435,7 +15519,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="4">
         <v>3</v>
       </c>
@@ -15461,7 +15545,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" s="4">
         <v>12</v>
       </c>
@@ -15487,7 +15571,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="4">
         <v>5</v>
       </c>
@@ -15513,7 +15597,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="4">
         <v>8</v>
       </c>
@@ -15539,7 +15623,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" s="4">
         <v>1</v>
       </c>
@@ -15565,7 +15649,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" s="4">
         <v>10</v>
       </c>
@@ -15592,7 +15676,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H73">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H73">
     <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -15604,11 +15688,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44C2756-9FD9-464D-BC84-D57B33898E23}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="7" width="8.88671875" customWidth="1"/>
     <col min="8" max="8" width="14.5546875" customWidth="1"/>
@@ -15618,7 +15702,7 @@
     <col min="24" max="24" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15644,7 +15728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -15686,7 +15770,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3" s="6">
         <v>12</v>
       </c>
@@ -15715,7 +15799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -15752,7 +15836,7 @@
         <v>203.76471874704069</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" s="6">
         <v>8</v>
       </c>
@@ -15789,7 +15873,7 @@
         <v>1.5954480704349312</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -15826,7 +15910,7 @@
         <v>3.6013465495140795</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" s="6">
         <v>10</v>
       </c>
@@ -15863,7 +15947,7 @@
         <v>2.179449471770337</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -15907,7 +15991,7 @@
         <v>41.242079129319983</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -15936,7 +16020,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -15965,7 +16049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -15991,7 +16075,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="A12" s="6">
         <v>4</v>
       </c>
@@ -16028,7 +16112,7 @@
         <v>184.64780151970561</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -16065,7 +16149,7 @@
         <v>1.4459976109624424</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="A14" s="6">
         <v>2</v>
       </c>
@@ -16109,7 +16193,7 @@
         <v>2.6097137890209448</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="A15" s="6">
         <v>5</v>
       </c>
@@ -16149,7 +16233,7 @@
         <v>3.7040109300185611</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -16186,7 +16270,7 @@
         <v>39.760933316281928</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" s="6">
         <v>4</v>
       </c>
@@ -16212,7 +16296,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="6">
         <v>3</v>
       </c>
@@ -16238,7 +16322,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="6">
         <v>6</v>
       </c>
@@ -16264,7 +16348,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20" s="6">
         <v>8</v>
       </c>
@@ -16290,7 +16374,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21" s="6">
         <v>11</v>
       </c>
@@ -16320,7 +16404,7 @@
         <v>0.2470814957565875</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="A22" s="6">
         <v>7</v>
       </c>
@@ -16349,7 +16433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23" s="6">
         <v>10</v>
       </c>
@@ -16378,7 +16462,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="6">
         <v>9</v>
       </c>
@@ -16404,7 +16488,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="6">
         <v>12</v>
       </c>
@@ -16430,18 +16514,18 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="T28">
         <f>7141/66946</f>
         <v>0.10666806082514266</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="J29" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="J30" t="s">
         <v>20</v>
       </c>
@@ -16454,14 +16538,185 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C49201-8439-4DBB-89DF-1746D9B2FB35}">
+  <dimension ref="B1:C18"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1">
+        <v>6.38</v>
+      </c>
+      <c r="C1">
+        <f>B1*60</f>
+        <v>382.8</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2">
+        <v>2.04</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C18" si="0">B2*60</f>
+        <v>122.4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>601.79999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4">
+        <v>2.89</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>173.4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5">
+        <v>12.38</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>742.80000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6">
+        <v>4.18</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>250.79999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8">
+        <v>4.3</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9">
+        <v>1.25</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10">
+        <v>6.5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>124.19999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12">
+        <v>5.7</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13">
+        <v>1.7</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>511.79999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16">
+        <v>5.07</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>304.20000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17">
+        <v>15.67</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>940.2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18">
+        <v>3.97</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>238.20000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DA2B78-1903-48D6-88B7-149A9A15E980}">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W28" sqref="W28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="5" max="5" width="15.44140625" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" customWidth="1"/>
@@ -16472,7 +16727,7 @@
     <col min="24" max="24" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16498,7 +16753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="A2" s="8">
         <v>3</v>
       </c>
@@ -16540,7 +16795,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -16569,7 +16824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="A4" s="8">
         <v>5</v>
       </c>
@@ -16606,7 +16861,7 @@
         <v>187.5019797875276</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5" s="8">
         <v>10</v>
       </c>
@@ -16643,7 +16898,7 @@
         <v>1.083624669450832</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -16680,7 +16935,7 @@
         <v>3.1861442452461484</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7" s="8">
         <v>12</v>
       </c>
@@ -16717,7 +16972,7 @@
         <v>1.3789543689024493</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="A8" s="8">
         <v>2</v>
       </c>
@@ -16762,7 +17017,7 @@
         <v>30.115308701419917</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="A9" s="8">
         <v>9</v>
       </c>
@@ -16791,7 +17046,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -16820,7 +17075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24">
       <c r="A11" s="8">
         <v>11</v>
       </c>
@@ -16846,7 +17101,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -16883,7 +17138,7 @@
         <v>214.661872946664</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -16920,7 +17175,7 @@
         <v>2.9063670960444252</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="A14" s="8">
         <v>7</v>
       </c>
@@ -16964,7 +17219,7 @@
         <v>1.9694638556693229</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="A15" s="8">
         <v>10</v>
       </c>
@@ -17004,7 +17259,7 @@
         <v>3.519426606190792</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="A16" s="8">
         <v>9</v>
       </c>
@@ -17041,7 +17296,7 @@
         <v>60.243634141255576</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" s="8">
         <v>12</v>
       </c>
@@ -17067,7 +17322,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="8">
         <v>8</v>
       </c>
@@ -17093,7 +17348,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="8">
         <v>11</v>
       </c>
@@ -17119,7 +17374,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20" s="8">
         <v>1</v>
       </c>
@@ -17145,7 +17400,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21" s="8">
         <v>4</v>
       </c>
@@ -17175,7 +17430,7 @@
         <v>0.15198294933362111</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="A22" s="8">
         <v>3</v>
       </c>
@@ -17204,7 +17459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23" s="8">
         <v>6</v>
       </c>
@@ -17233,7 +17488,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="8">
         <v>2</v>
       </c>
@@ -17259,7 +17514,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="8">
         <v>5</v>
       </c>
@@ -17285,868 +17540,18 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="T28">
         <f>10086/59984</f>
         <v>0.16814483862363297</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="J29" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J30" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C716E3-0D1A-4CEB-8C26-4732C7DCBEB7}">
-  <dimension ref="A1:X30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="10" max="10" width="16.5546875" customWidth="1"/>
-    <col min="22" max="22" width="19.5546875" customWidth="1"/>
-    <col min="23" max="24" width="12.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4">
-        <v>335</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4">
-        <v>13</v>
-      </c>
-      <c r="G2" s="4">
-        <v>5</v>
-      </c>
-      <c r="H2" s="4">
-        <v>178</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2">
-        <f>97793/491815</f>
-        <v>0.19884102762217501</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4">
-        <v>492</v>
-      </c>
-      <c r="E3" s="4">
-        <v>4</v>
-      </c>
-      <c r="F3" s="4">
-        <v>8</v>
-      </c>
-      <c r="G3" s="4">
-        <v>3</v>
-      </c>
-      <c r="H3" s="4">
-        <v>203</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4">
-        <v>395</v>
-      </c>
-      <c r="E4" s="4">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4">
-        <v>8</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>117</v>
-      </c>
-      <c r="V4" t="s">
-        <v>34</v>
-      </c>
-      <c r="W4">
-        <f>AVERAGE(D2:D13)</f>
-        <v>452.5</v>
-      </c>
-      <c r="X4">
-        <f>STDEV(D2:D13)</f>
-        <v>118.41414227578178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4">
-        <v>439</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4">
-        <v>9</v>
-      </c>
-      <c r="G5" s="4">
-        <v>3</v>
-      </c>
-      <c r="H5" s="4">
-        <v>93</v>
-      </c>
-      <c r="V5" t="s">
-        <v>15</v>
-      </c>
-      <c r="W5">
-        <f>AVERAGE(E2:E13)</f>
-        <v>2.5833333333333335</v>
-      </c>
-      <c r="X5">
-        <f>STDEV(E2:E13)</f>
-        <v>1.4433756729740645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4">
-        <v>396</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3</v>
-      </c>
-      <c r="F6" s="4">
-        <v>6</v>
-      </c>
-      <c r="G6" s="4">
-        <v>5</v>
-      </c>
-      <c r="H6" s="4">
-        <v>73</v>
-      </c>
-      <c r="V6" t="s">
-        <v>35</v>
-      </c>
-      <c r="W6">
-        <f>AVERAGE(F2:F13)</f>
-        <v>8.0833333333333339</v>
-      </c>
-      <c r="X6">
-        <f>STDEV(F2:F13)</f>
-        <v>2.745519766433814</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4">
-        <v>721</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4">
-        <v>11</v>
-      </c>
-      <c r="G7" s="4">
-        <v>3</v>
-      </c>
-      <c r="H7" s="4">
-        <v>118</v>
-      </c>
-      <c r="V7" t="s">
-        <v>17</v>
-      </c>
-      <c r="W7">
-        <f>AVERAGE(G2:G13)</f>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="X7">
-        <f>STDEV(G2:G13)</f>
-        <v>1.8748737331221839</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4">
-        <v>464</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>6</v>
-      </c>
-      <c r="G8" s="4">
-        <v>3</v>
-      </c>
-      <c r="H8" s="4">
-        <v>90</v>
-      </c>
-      <c r="J8" t="s">
-        <v>15</v>
-      </c>
-      <c r="T8">
-        <f>322.7/496.5</f>
-        <v>0.6499496475327291</v>
-      </c>
-      <c r="V8" t="s">
-        <v>18</v>
-      </c>
-      <c r="W8">
-        <f>AVERAGE(H2:H13)</f>
-        <v>125.5</v>
-      </c>
-      <c r="X8">
-        <f>STDEV(H2:H13)</f>
-        <v>38.923000912057127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4">
-        <v>301</v>
-      </c>
-      <c r="E9" s="4">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4">
-        <v>8</v>
-      </c>
-      <c r="G9" s="4">
-        <v>2</v>
-      </c>
-      <c r="H9" s="4">
-        <v>92</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4">
-        <v>555</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2</v>
-      </c>
-      <c r="F10" s="4">
-        <v>4</v>
-      </c>
-      <c r="G10" s="4">
-        <v>3</v>
-      </c>
-      <c r="H10" s="4">
-        <v>110</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4">
-        <v>555</v>
-      </c>
-      <c r="E11" s="4">
-        <v>4</v>
-      </c>
-      <c r="F11" s="4">
-        <v>6</v>
-      </c>
-      <c r="G11" s="4">
-        <v>7</v>
-      </c>
-      <c r="H11" s="4">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="4">
-        <v>326</v>
-      </c>
-      <c r="E12" s="4">
-        <v>2</v>
-      </c>
-      <c r="F12" s="4">
-        <v>12</v>
-      </c>
-      <c r="G12" s="4">
-        <v>4</v>
-      </c>
-      <c r="H12" s="4">
-        <v>134</v>
-      </c>
-      <c r="V12" t="s">
-        <v>34</v>
-      </c>
-      <c r="W12">
-        <f>AVERAGE(D14:D25)</f>
-        <v>580.16666666666663</v>
-      </c>
-      <c r="X12">
-        <f>STDEV(D14:D25)</f>
-        <v>147.64258644894201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4">
-        <v>6</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="4">
-        <v>451</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>6</v>
-      </c>
-      <c r="G13" s="4">
-        <v>6</v>
-      </c>
-      <c r="H13" s="4">
-        <v>140</v>
-      </c>
-      <c r="V13" t="s">
-        <v>15</v>
-      </c>
-      <c r="W13">
-        <f>AVERAGE(E14:E25)</f>
-        <v>9.9166666666666661</v>
-      </c>
-      <c r="X13">
-        <f>STDEV(E14:E25)</f>
-        <v>3.7040109300185624</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4">
-        <v>535</v>
-      </c>
-      <c r="E14" s="4">
-        <v>6</v>
-      </c>
-      <c r="F14" s="4">
-        <v>8</v>
-      </c>
-      <c r="G14" s="4">
-        <v>9</v>
-      </c>
-      <c r="H14" s="4">
-        <v>162</v>
-      </c>
-      <c r="J14" t="s">
-        <v>16</v>
-      </c>
-      <c r="T14">
-        <f>3.375/211.958</f>
-        <v>1.5922965870597005E-2</v>
-      </c>
-      <c r="V14" t="s">
-        <v>35</v>
-      </c>
-      <c r="W14">
-        <f>AVERAGE(F14:F25)</f>
-        <v>8.8333333333333339</v>
-      </c>
-      <c r="X14">
-        <f>STDEV(F14:F25)</f>
-        <v>3.3799766898963104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>9</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="4">
-        <v>423</v>
-      </c>
-      <c r="E15" s="4">
-        <v>12</v>
-      </c>
-      <c r="F15" s="4">
-        <v>4</v>
-      </c>
-      <c r="G15" s="4">
-        <v>3</v>
-      </c>
-      <c r="H15" s="4">
-        <v>164</v>
-      </c>
-      <c r="J15" t="s">
-        <v>20</v>
-      </c>
-      <c r="V15" t="s">
-        <v>17</v>
-      </c>
-      <c r="W15">
-        <f>AVERAGE(G14:G25)</f>
-        <v>7.583333333333333</v>
-      </c>
-      <c r="X15">
-        <f>STDEV(G14:G25)</f>
-        <v>3.3154825052206562</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>2</v>
-      </c>
-      <c r="B16" s="4">
-        <v>2</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="4">
-        <v>327</v>
-      </c>
-      <c r="E16" s="4">
-        <v>12</v>
-      </c>
-      <c r="F16" s="4">
-        <v>13</v>
-      </c>
-      <c r="G16" s="4">
-        <v>11</v>
-      </c>
-      <c r="H16" s="4">
-        <v>107</v>
-      </c>
-      <c r="V16" t="s">
-        <v>18</v>
-      </c>
-      <c r="W16">
-        <f>AVERAGE(H14:H25)</f>
-        <v>158</v>
-      </c>
-      <c r="X16">
-        <f>STDEV(H14:H25)</f>
-        <v>36.221540552549669</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>11</v>
-      </c>
-      <c r="B17" s="4">
-        <v>2</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="4">
-        <v>664</v>
-      </c>
-      <c r="E17" s="4">
-        <v>11</v>
-      </c>
-      <c r="F17" s="4">
-        <v>8</v>
-      </c>
-      <c r="G17" s="4">
-        <v>10</v>
-      </c>
-      <c r="H17" s="4">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>4</v>
-      </c>
-      <c r="B18" s="4">
-        <v>3</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="4">
-        <v>617</v>
-      </c>
-      <c r="E18" s="4">
-        <v>9</v>
-      </c>
-      <c r="F18" s="4">
-        <v>12</v>
-      </c>
-      <c r="G18" s="4">
-        <v>11</v>
-      </c>
-      <c r="H18" s="4">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>7</v>
-      </c>
-      <c r="B19" s="4">
-        <v>3</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="4">
-        <v>908</v>
-      </c>
-      <c r="E19" s="4">
-        <v>15</v>
-      </c>
-      <c r="F19" s="4">
-        <v>7</v>
-      </c>
-      <c r="G19" s="4">
-        <v>9</v>
-      </c>
-      <c r="H19" s="4">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>3</v>
-      </c>
-      <c r="B20" s="4">
-        <v>4</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="4">
-        <v>658</v>
-      </c>
-      <c r="E20" s="4">
-        <v>14</v>
-      </c>
-      <c r="F20" s="4">
-        <v>4</v>
-      </c>
-      <c r="G20" s="4">
-        <v>10</v>
-      </c>
-      <c r="H20" s="4">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>12</v>
-      </c>
-      <c r="B21" s="4">
-        <v>4</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="4">
-        <v>543</v>
-      </c>
-      <c r="E21" s="4">
-        <v>6</v>
-      </c>
-      <c r="F21" s="4">
-        <v>9</v>
-      </c>
-      <c r="G21" s="4">
-        <v>3</v>
-      </c>
-      <c r="H21" s="4">
-        <v>189</v>
-      </c>
-      <c r="T21">
-        <f>92.04/251.63</f>
-        <v>0.36577514604776856</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>5</v>
-      </c>
-      <c r="B22" s="4">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="4">
-        <v>457</v>
-      </c>
-      <c r="E22" s="4">
-        <v>5</v>
-      </c>
-      <c r="F22" s="4">
-        <v>11</v>
-      </c>
-      <c r="G22" s="4">
-        <v>4</v>
-      </c>
-      <c r="H22" s="4">
-        <v>208</v>
-      </c>
-      <c r="J22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>8</v>
-      </c>
-      <c r="B23" s="4">
-        <v>5</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="4">
-        <v>650</v>
-      </c>
-      <c r="E23" s="4">
-        <v>7</v>
-      </c>
-      <c r="F23" s="4">
-        <v>12</v>
-      </c>
-      <c r="G23" s="4">
-        <v>6</v>
-      </c>
-      <c r="H23" s="4">
-        <v>113</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>1</v>
-      </c>
-      <c r="B24" s="4">
-        <v>6</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="4">
-        <v>538</v>
-      </c>
-      <c r="E24" s="4">
-        <v>15</v>
-      </c>
-      <c r="F24" s="4">
-        <v>5</v>
-      </c>
-      <c r="G24" s="4">
-        <v>4</v>
-      </c>
-      <c r="H24" s="4">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>10</v>
-      </c>
-      <c r="B25" s="4">
-        <v>6</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="4">
-        <v>642</v>
-      </c>
-      <c r="E25" s="4">
-        <v>7</v>
-      </c>
-      <c r="F25" s="4">
-        <v>13</v>
-      </c>
-      <c r="G25" s="4">
-        <v>11</v>
-      </c>
-      <c r="H25" s="4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T28">
-        <f>6337/37434</f>
-        <v>0.16928460757600042</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="J30" s="11" t="s">
         <v>42</v>
       </c>
@@ -18159,20 +17564,870 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C716E3-0D1A-4CEB-8C26-4732C7DCBEB7}">
+  <dimension ref="A1:X30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
+    <col min="22" max="22" width="19.5546875" customWidth="1"/>
+    <col min="23" max="24" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="4">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>335</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4">
+        <v>178</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2">
+        <f>97793/491815</f>
+        <v>0.19884102762217501</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="4">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4">
+        <v>492</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>203</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4">
+        <v>395</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>117</v>
+      </c>
+      <c r="V4" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4">
+        <f>AVERAGE(D2:D13)</f>
+        <v>452.5</v>
+      </c>
+      <c r="X4">
+        <f>STDEV(D2:D13)</f>
+        <v>118.41414227578178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="4">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>439</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>93</v>
+      </c>
+      <c r="V5" t="s">
+        <v>15</v>
+      </c>
+      <c r="W5">
+        <f>AVERAGE(E2:E13)</f>
+        <v>2.5833333333333335</v>
+      </c>
+      <c r="X5">
+        <f>STDEV(E2:E13)</f>
+        <v>1.4433756729740645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4">
+        <v>396</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4">
+        <v>73</v>
+      </c>
+      <c r="V6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W6">
+        <f>AVERAGE(F2:F13)</f>
+        <v>8.0833333333333339</v>
+      </c>
+      <c r="X6">
+        <f>STDEV(F2:F13)</f>
+        <v>2.745519766433814</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="4">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4">
+        <v>721</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>11</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>118</v>
+      </c>
+      <c r="V7" t="s">
+        <v>17</v>
+      </c>
+      <c r="W7">
+        <f>AVERAGE(G2:G13)</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="X7">
+        <f>STDEV(G2:G13)</f>
+        <v>1.8748737331221839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>464</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>6</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3</v>
+      </c>
+      <c r="H8" s="4">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T8">
+        <f>322.7/496.5</f>
+        <v>0.6499496475327291</v>
+      </c>
+      <c r="V8" t="s">
+        <v>18</v>
+      </c>
+      <c r="W8">
+        <f>AVERAGE(H2:H13)</f>
+        <v>125.5</v>
+      </c>
+      <c r="X8">
+        <f>STDEV(H2:H13)</f>
+        <v>38.923000912057127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="4">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4">
+        <v>301</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>92</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4">
+        <v>555</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4">
+        <v>110</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="4">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
+        <v>555</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4</v>
+      </c>
+      <c r="F11" s="4">
+        <v>6</v>
+      </c>
+      <c r="G11" s="4">
+        <v>7</v>
+      </c>
+      <c r="H11" s="4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="4">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4">
+        <v>326</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4">
+        <v>12</v>
+      </c>
+      <c r="G12" s="4">
+        <v>4</v>
+      </c>
+      <c r="H12" s="4">
+        <v>134</v>
+      </c>
+      <c r="V12" t="s">
+        <v>34</v>
+      </c>
+      <c r="W12">
+        <f>AVERAGE(D14:D25)</f>
+        <v>580.16666666666663</v>
+      </c>
+      <c r="X12">
+        <f>STDEV(D14:D25)</f>
+        <v>147.64258644894201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4">
+        <v>451</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>6</v>
+      </c>
+      <c r="G13" s="4">
+        <v>6</v>
+      </c>
+      <c r="H13" s="4">
+        <v>140</v>
+      </c>
+      <c r="V13" t="s">
+        <v>15</v>
+      </c>
+      <c r="W13">
+        <f>AVERAGE(E14:E25)</f>
+        <v>9.9166666666666661</v>
+      </c>
+      <c r="X13">
+        <f>STDEV(E14:E25)</f>
+        <v>3.7040109300185624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="4">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4">
+        <v>535</v>
+      </c>
+      <c r="E14" s="4">
+        <v>6</v>
+      </c>
+      <c r="F14" s="4">
+        <v>8</v>
+      </c>
+      <c r="G14" s="4">
+        <v>9</v>
+      </c>
+      <c r="H14" s="4">
+        <v>162</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+      <c r="T14">
+        <f>3.375/211.958</f>
+        <v>1.5922965870597005E-2</v>
+      </c>
+      <c r="V14" t="s">
+        <v>35</v>
+      </c>
+      <c r="W14">
+        <f>AVERAGE(F14:F25)</f>
+        <v>8.8333333333333339</v>
+      </c>
+      <c r="X14">
+        <f>STDEV(F14:F25)</f>
+        <v>3.3799766898963104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="4">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4">
+        <v>423</v>
+      </c>
+      <c r="E15" s="4">
+        <v>12</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4</v>
+      </c>
+      <c r="G15" s="4">
+        <v>3</v>
+      </c>
+      <c r="H15" s="4">
+        <v>164</v>
+      </c>
+      <c r="J15" t="s">
+        <v>20</v>
+      </c>
+      <c r="V15" t="s">
+        <v>17</v>
+      </c>
+      <c r="W15">
+        <f>AVERAGE(G14:G25)</f>
+        <v>7.583333333333333</v>
+      </c>
+      <c r="X15">
+        <f>STDEV(G14:G25)</f>
+        <v>3.3154825052206562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="4">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4">
+        <v>327</v>
+      </c>
+      <c r="E16" s="4">
+        <v>12</v>
+      </c>
+      <c r="F16" s="4">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4">
+        <v>11</v>
+      </c>
+      <c r="H16" s="4">
+        <v>107</v>
+      </c>
+      <c r="V16" t="s">
+        <v>18</v>
+      </c>
+      <c r="W16">
+        <f>AVERAGE(H14:H25)</f>
+        <v>158</v>
+      </c>
+      <c r="X16">
+        <f>STDEV(H14:H25)</f>
+        <v>36.221540552549669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="4">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4">
+        <v>664</v>
+      </c>
+      <c r="E17" s="4">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4">
+        <v>8</v>
+      </c>
+      <c r="G17" s="4">
+        <v>10</v>
+      </c>
+      <c r="H17" s="4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="4">
+        <v>4</v>
+      </c>
+      <c r="B18" s="4">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4">
+        <v>617</v>
+      </c>
+      <c r="E18" s="4">
+        <v>9</v>
+      </c>
+      <c r="F18" s="4">
+        <v>12</v>
+      </c>
+      <c r="G18" s="4">
+        <v>11</v>
+      </c>
+      <c r="H18" s="4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="4">
+        <v>7</v>
+      </c>
+      <c r="B19" s="4">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="4">
+        <v>908</v>
+      </c>
+      <c r="E19" s="4">
+        <v>15</v>
+      </c>
+      <c r="F19" s="4">
+        <v>7</v>
+      </c>
+      <c r="G19" s="4">
+        <v>9</v>
+      </c>
+      <c r="H19" s="4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="4">
+        <v>3</v>
+      </c>
+      <c r="B20" s="4">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4">
+        <v>658</v>
+      </c>
+      <c r="E20" s="4">
+        <v>14</v>
+      </c>
+      <c r="F20" s="4">
+        <v>4</v>
+      </c>
+      <c r="G20" s="4">
+        <v>10</v>
+      </c>
+      <c r="H20" s="4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="4">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="4">
+        <v>543</v>
+      </c>
+      <c r="E21" s="4">
+        <v>6</v>
+      </c>
+      <c r="F21" s="4">
+        <v>9</v>
+      </c>
+      <c r="G21" s="4">
+        <v>3</v>
+      </c>
+      <c r="H21" s="4">
+        <v>189</v>
+      </c>
+      <c r="T21">
+        <f>92.04/251.63</f>
+        <v>0.36577514604776856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="4">
+        <v>5</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="4">
+        <v>457</v>
+      </c>
+      <c r="E22" s="4">
+        <v>5</v>
+      </c>
+      <c r="F22" s="4">
+        <v>11</v>
+      </c>
+      <c r="G22" s="4">
+        <v>4</v>
+      </c>
+      <c r="H22" s="4">
+        <v>208</v>
+      </c>
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="4">
+        <v>8</v>
+      </c>
+      <c r="B23" s="4">
+        <v>5</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4">
+        <v>650</v>
+      </c>
+      <c r="E23" s="4">
+        <v>7</v>
+      </c>
+      <c r="F23" s="4">
+        <v>12</v>
+      </c>
+      <c r="G23" s="4">
+        <v>6</v>
+      </c>
+      <c r="H23" s="4">
+        <v>113</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="4">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="4">
+        <v>538</v>
+      </c>
+      <c r="E24" s="4">
+        <v>15</v>
+      </c>
+      <c r="F24" s="4">
+        <v>5</v>
+      </c>
+      <c r="G24" s="4">
+        <v>4</v>
+      </c>
+      <c r="H24" s="4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="4">
+        <v>10</v>
+      </c>
+      <c r="B25" s="4">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="4">
+        <v>642</v>
+      </c>
+      <c r="E25" s="4">
+        <v>7</v>
+      </c>
+      <c r="F25" s="4">
+        <v>13</v>
+      </c>
+      <c r="G25" s="4">
+        <v>11</v>
+      </c>
+      <c r="H25" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="T28">
+        <f>6337/37434</f>
+        <v>0.16928460757600042</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="J30" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B1FE86-1EA3-4E43-A034-9FD5CE3CD72A}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -18183,7 +18438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18194,7 +18449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18205,7 +18460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18216,7 +18471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="10" customFormat="1">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -18227,7 +18482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -18238,7 +18493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -18249,7 +18504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -18260,7 +18515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="10" customFormat="1">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -18271,7 +18526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -18282,7 +18537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -18293,7 +18548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -18304,7 +18559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -18315,7 +18570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -18331,7 +18586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4">
       <c r="B18" t="s">
         <v>39</v>
       </c>
@@ -18342,63 +18597,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4">
       <c r="B19" t="s">
         <v>41</v>
       </c>
       <c r="C19">
         <v>4.3310000000000001E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D79666-2BFD-4477-93A1-8A46BFA8A696}">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
